--- a/Monetary Prediction/data/Test.xlsx
+++ b/Monetary Prediction/data/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\ITS\Tugas\Semester 4\DeepLearning-RKA\Monetary Prediction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485595CB-D784-47D1-B4E4-6C83EFF53F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168CB9F4-4F51-4DED-A40A-64C2B1173E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42E8541B-759B-46F0-B071-D82C2C4BBA23}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{42E8541B-759B-46F0-B071-D82C2C4BBA23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -540,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -551,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -562,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -573,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -584,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -606,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -617,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -628,7 +628,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
